--- a/감정인덱스_20201115_v1.xlsx
+++ b/감정인덱스_20201115_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="48" windowWidth="21000" windowHeight="9912" activeTab="2"/>
+    <workbookView xWindow="576" yWindow="48" windowWidth="21000" windowHeight="9912" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="005930" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>NEW_BAS_DT</t>
   </si>
@@ -81,6 +81,42 @@
   </si>
   <si>
     <t>(1) 긍정적인 의견 비율이 올라감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>년초는 데이터가 많지 않아 편차가 큼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이오주보다 편차가 큼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(갑론을박이 많음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4월 일별 편차가 작은 이유? 글 수가 어마어마해지면서 일정한 값으로 수렴된 것 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(글의 양이 많을 수록 오차가 줄어든다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(글의 양이 많을 수록 오차가 적은 인덱스가 만들어짐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CMG제약보다는 덜 좋지만 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래 가설에 매우 들어맞음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(3) 주가 폭발 ??? </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2811,11 +2847,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138200064"/>
-        <c:axId val="164805952"/>
+        <c:axId val="188221440"/>
+        <c:axId val="181233920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="138200064"/>
+        <c:axId val="188221440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2825,14 +2861,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164805952"/>
+        <c:crossAx val="181233920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="164805952"/>
+        <c:axId val="181233920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2843,7 +2879,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138200064"/>
+        <c:crossAx val="188221440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6365,11 +6401,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="190723584"/>
-        <c:axId val="281766720"/>
+        <c:axId val="189449728"/>
+        <c:axId val="189266688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="190723584"/>
+        <c:axId val="189449728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6379,14 +6415,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="281766720"/>
+        <c:crossAx val="189266688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="281766720"/>
+        <c:axId val="189266688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6397,7 +6433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190723584"/>
+        <c:crossAx val="189449728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9064,11 +9100,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="281354752"/>
-        <c:axId val="304400640"/>
+        <c:axId val="188308480"/>
+        <c:axId val="189482112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="281354752"/>
+        <c:axId val="188308480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9078,14 +9114,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="304400640"/>
+        <c:crossAx val="189482112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="304400640"/>
+        <c:axId val="189482112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9096,7 +9132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="281354752"/>
+        <c:crossAx val="188308480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12618,11 +12654,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="281351680"/>
-        <c:axId val="304403520"/>
+        <c:axId val="189451776"/>
+        <c:axId val="189484416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="281351680"/>
+        <c:axId val="189451776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12632,14 +12668,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="304403520"/>
+        <c:crossAx val="189484416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="304403520"/>
+        <c:axId val="189484416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12650,7 +12686,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="281351680"/>
+        <c:crossAx val="189451776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17926,11 +17962,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="186455552"/>
-        <c:axId val="171141952"/>
+        <c:axId val="188222976"/>
+        <c:axId val="181236224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="186455552"/>
+        <c:axId val="188222976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17940,14 +17976,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171141952"/>
+        <c:crossAx val="181236224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="171141952"/>
+        <c:axId val="181236224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17958,7 +17994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186455552"/>
+        <c:crossAx val="188222976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20625,11 +20661,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209440768"/>
-        <c:axId val="217557824"/>
+        <c:axId val="188306944"/>
+        <c:axId val="181238528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="209440768"/>
+        <c:axId val="188306944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20639,14 +20675,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217557824"/>
+        <c:crossAx val="181238528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="217557824"/>
+        <c:axId val="181238528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20657,7 +20693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209440768"/>
+        <c:crossAx val="188306944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24179,11 +24215,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209441280"/>
-        <c:axId val="217560704"/>
+        <c:axId val="188307968"/>
+        <c:axId val="188818560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="209441280"/>
+        <c:axId val="188307968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24193,14 +24229,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217560704"/>
+        <c:crossAx val="188818560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="217560704"/>
+        <c:axId val="188818560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24211,7 +24247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209441280"/>
+        <c:crossAx val="188307968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26878,11 +26914,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="274780672"/>
-        <c:axId val="215700544"/>
+        <c:axId val="188305920"/>
+        <c:axId val="188820864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="274780672"/>
+        <c:axId val="188305920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26892,14 +26928,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215700544"/>
+        <c:crossAx val="188820864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="215700544"/>
+        <c:axId val="188820864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26910,7 +26946,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="274780672"/>
+        <c:crossAx val="188305920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30432,11 +30468,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="274781184"/>
-        <c:axId val="217555520"/>
+        <c:axId val="188973568"/>
+        <c:axId val="188823168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="274781184"/>
+        <c:axId val="188973568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30446,14 +30482,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217555520"/>
+        <c:crossAx val="188823168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="217555520"/>
+        <c:axId val="188823168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30464,7 +30500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="274781184"/>
+        <c:crossAx val="188973568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33131,11 +33167,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139307008"/>
-        <c:axId val="275003584"/>
+        <c:axId val="188975104"/>
+        <c:axId val="189259776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="139307008"/>
+        <c:axId val="188975104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33145,14 +33181,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="275003584"/>
+        <c:crossAx val="189259776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="275003584"/>
+        <c:axId val="189259776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33163,7 +33199,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139307008"/>
+        <c:crossAx val="188975104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -36685,11 +36721,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139307520"/>
-        <c:axId val="254452864"/>
+        <c:axId val="160023040"/>
+        <c:axId val="189262080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="139307520"/>
+        <c:axId val="160023040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -36699,14 +36735,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254452864"/>
+        <c:crossAx val="189262080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254452864"/>
+        <c:axId val="189262080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -36717,7 +36753,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139307520"/>
+        <c:crossAx val="160023040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -39384,11 +39420,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="186454016"/>
-        <c:axId val="281763840"/>
+        <c:axId val="189448192"/>
+        <c:axId val="189264384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="186454016"/>
+        <c:axId val="189448192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39398,14 +39434,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="281763840"/>
+        <c:crossAx val="189264384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="281763840"/>
+        <c:axId val="189264384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39416,7 +39452,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186454016"/>
+        <c:crossAx val="189448192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -40137,10 +40173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R284"/>
+  <dimension ref="A1:V284"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6:V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -40148,7 +40184,7 @@
     <col min="1" max="1" width="12.796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -40181,7 +40217,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
@@ -40214,7 +40250,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>43832</v>
       </c>
@@ -40237,7 +40273,7 @@
         <v>0.15920000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>43833</v>
       </c>
@@ -40260,7 +40296,7 @@
         <v>0.13780000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>43834</v>
       </c>
@@ -40283,7 +40319,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>43835</v>
       </c>
@@ -40305,8 +40341,14 @@
       <c r="G6">
         <v>0.1014</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>43836</v>
       </c>
@@ -40328,8 +40370,14 @@
       <c r="G7">
         <v>0.1454</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>43837</v>
       </c>
@@ -40351,8 +40399,12 @@
       <c r="G8">
         <v>0.1734</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>43838</v>
       </c>
@@ -40374,8 +40426,12 @@
       <c r="G9">
         <v>0.1409</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>43839</v>
       </c>
@@ -40398,7 +40454,7 @@
         <v>0.1701</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>43840</v>
       </c>
@@ -40421,7 +40477,7 @@
         <v>0.1787</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>43841</v>
       </c>
@@ -40444,7 +40500,7 @@
         <v>0.13969999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>43842</v>
       </c>
@@ -40467,7 +40523,7 @@
         <v>9.74E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>43843</v>
       </c>
@@ -40490,7 +40546,7 @@
         <v>0.17469999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>43844</v>
       </c>
@@ -40523,7 +40579,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>43845</v>
       </c>
@@ -46719,10 +46775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R284"/>
+  <dimension ref="A1:V284"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G284"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6:V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -46730,7 +46786,7 @@
     <col min="1" max="1" width="12.796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -46763,7 +46819,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
@@ -46796,7 +46852,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>43832</v>
       </c>
@@ -46819,7 +46875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>43833</v>
       </c>
@@ -46842,7 +46898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>43834</v>
       </c>
@@ -46865,7 +46921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>43835</v>
       </c>
@@ -46887,8 +46943,14 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>43836</v>
       </c>
@@ -46910,8 +46972,12 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>43837</v>
       </c>
@@ -46933,8 +46999,12 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>43838</v>
       </c>
@@ -46956,8 +47026,12 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>43839</v>
       </c>
@@ -46980,7 +47054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>43840</v>
       </c>
@@ -47003,7 +47077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>43841</v>
       </c>
@@ -47026,7 +47100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>43842</v>
       </c>
@@ -47049,7 +47123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>43843</v>
       </c>
@@ -47072,7 +47146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>43844</v>
       </c>
@@ -47105,7 +47179,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>43845</v>
       </c>
@@ -53303,8 +53377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -53498,7 +53572,7 @@
         <v>0.16669999999999999</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -53526,7 +53600,7 @@
         <v>0.15</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -53554,7 +53628,7 @@
         <v>6.6699999999999995E-2</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -53581,6 +53655,11 @@
       <c r="G10">
         <v>0</v>
       </c>
+      <c r="S10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
@@ -59903,10 +59982,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R284"/>
+  <dimension ref="A1:V284"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7:V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -59914,7 +59993,7 @@
     <col min="1" max="1" width="12.796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -59947,7 +60026,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
@@ -59980,7 +60059,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>43832</v>
       </c>
@@ -60003,7 +60082,7 @@
         <v>0.22389999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>43833</v>
       </c>
@@ -60026,7 +60105,7 @@
         <v>0.26319999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>43834</v>
       </c>
@@ -60049,7 +60128,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>43835</v>
       </c>
@@ -60072,7 +60151,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>43836</v>
       </c>
@@ -60094,8 +60173,14 @@
       <c r="G7">
         <v>5.8799999999999998E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>43837</v>
       </c>
@@ -60117,8 +60202,14 @@
       <c r="G8">
         <v>0.35709999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>43838</v>
       </c>
@@ -60140,8 +60231,12 @@
       <c r="G9">
         <v>0.4103</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>43839</v>
       </c>
@@ -60163,8 +60258,12 @@
       <c r="G10">
         <v>0.38100000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>43840</v>
       </c>
@@ -60187,7 +60286,7 @@
         <v>0.42859999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>43841</v>
       </c>
@@ -60210,7 +60309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>43842</v>
       </c>
@@ -60233,7 +60332,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>43843</v>
       </c>
@@ -60256,7 +60355,7 @@
         <v>0.15379999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>43844</v>
       </c>
@@ -60289,7 +60388,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>43845</v>
       </c>
@@ -66485,10 +66584,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R284"/>
+  <dimension ref="A1:Z284"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G284"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7:Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -66496,7 +66595,7 @@
     <col min="1" max="1" width="12.796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -66529,7 +66628,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
@@ -66562,7 +66661,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>43832</v>
       </c>
@@ -66585,7 +66684,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>43833</v>
       </c>
@@ -66608,7 +66707,7 @@
         <v>0.47370000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>43834</v>
       </c>
@@ -66631,7 +66730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>43835</v>
       </c>
@@ -66654,7 +66753,7 @@
         <v>0.30769999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>43836</v>
       </c>
@@ -66676,8 +66775,18 @@
       <c r="G7">
         <v>0.30769999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>43837</v>
       </c>
@@ -66699,8 +66808,18 @@
       <c r="G8">
         <v>0.33329999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>43838</v>
       </c>
@@ -66722,8 +66841,16 @@
       <c r="G9">
         <v>0.36670000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>43839</v>
       </c>
@@ -66745,8 +66872,18 @@
       <c r="G10">
         <v>0.1429</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>43840</v>
       </c>
@@ -66768,8 +66905,18 @@
       <c r="G11">
         <v>0.54549999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>43841</v>
       </c>
@@ -66791,8 +66938,18 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>43842</v>
       </c>
@@ -66815,7 +66972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>43843</v>
       </c>
@@ -66838,7 +66995,7 @@
         <v>0.61539999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>43844</v>
       </c>
@@ -66871,7 +67028,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>43845</v>
       </c>
@@ -73067,10 +73224,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R284"/>
+  <dimension ref="A1:W284"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -73078,7 +73235,7 @@
     <col min="1" max="1" width="12.796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -73111,7 +73268,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
@@ -73144,7 +73301,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>43832</v>
       </c>
@@ -73167,7 +73324,7 @@
         <v>0.1176</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>43833</v>
       </c>
@@ -73190,7 +73347,7 @@
         <v>0.14580000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>43834</v>
       </c>
@@ -73213,7 +73370,7 @@
         <v>0.18179999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>43835</v>
       </c>
@@ -73235,8 +73392,15 @@
       <c r="G6">
         <v>0.15379999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>43836</v>
       </c>
@@ -73258,8 +73422,15 @@
       <c r="G7">
         <v>0.1091</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>43837</v>
       </c>
@@ -73281,8 +73452,15 @@
       <c r="G8">
         <v>0.18179999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>43838</v>
       </c>
@@ -73304,8 +73482,15 @@
       <c r="G9">
         <v>7.6899999999999996E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>43839</v>
       </c>
@@ -73327,8 +73512,15 @@
       <c r="G10">
         <v>0.22220000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>43840</v>
       </c>
@@ -73351,7 +73543,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>43841</v>
       </c>
@@ -73374,7 +73566,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>43842</v>
       </c>
@@ -73397,7 +73589,7 @@
         <v>7.1400000000000005E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>43843</v>
       </c>
@@ -73420,7 +73612,7 @@
         <v>0.13950000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>43844</v>
       </c>
@@ -73453,7 +73645,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>43845</v>
       </c>
